--- a/data/datasets/agency/datasets_excel/summaries.xlsx
+++ b/data/datasets/agency/datasets_excel/summaries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>reaction_time_mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>reaction_time_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>sense_prob</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sense_std</t>
         </is>
@@ -484,9 +494,15 @@
         <v>0.3823992951500474</v>
       </c>
       <c r="F2" t="n">
+        <v>7346.157516338227</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6050.222149629646</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7222222222222219</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.2378547756418869</v>
       </c>
     </row>
@@ -509,9 +525,15 @@
         <v>0.2988972291015007</v>
       </c>
       <c r="F3" t="n">
+        <v>23423.96111111384</v>
+      </c>
+      <c r="G3" t="n">
+        <v>53666.33676082637</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8932461873638337</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1640977446765478</v>
       </c>
     </row>
@@ -534,9 +556,15 @@
         <v>0.3992743623905806</v>
       </c>
       <c r="F4" t="n">
+        <v>8832.546840959101</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8733.441444014474</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.8366013071895422</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1969996133386044</v>
       </c>
     </row>
@@ -559,9 +587,15 @@
         <v>0.433659173151649</v>
       </c>
       <c r="F5" t="n">
+        <v>8889.559259256963</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9429.17704502034</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.7222222222222219</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.247182385736447</v>
       </c>
     </row>
@@ -584,9 +618,15 @@
         <v>0.1858698938927843</v>
       </c>
       <c r="F6" t="n">
+        <v>9148.864270150487</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11194.4390241035</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.7091503267973855</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.2362268881065084</v>
       </c>
     </row>
@@ -609,9 +649,15 @@
         <v>0.4897020183826084</v>
       </c>
       <c r="F7" t="n">
+        <v>8207.505991285183</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7504.693987467969</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.8246187363834419</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2223643927639666</v>
       </c>
     </row>
@@ -634,9 +680,15 @@
         <v>0.4459258322329493</v>
       </c>
       <c r="F8" t="n">
+        <v>23064.52516339782</v>
+      </c>
+      <c r="G8" t="n">
+        <v>52914.14575182621</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.8071895424836599</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.2391265658422698</v>
       </c>
     </row>
@@ -659,9 +711,15 @@
         <v>0.2839371653744575</v>
       </c>
       <c r="F9" t="n">
+        <v>8465.968300657401</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8696.264842696486</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7352941176470589</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.244385234253637</v>
       </c>
     </row>
@@ -684,9 +742,15 @@
         <v>0.4604522767071556</v>
       </c>
       <c r="F10" t="n">
+        <v>7618.042810457286</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6281.659134497234</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.7755991285403049</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.2345437723102044</v>
       </c>
     </row>
@@ -709,9 +773,15 @@
         <v>0.4673455423386851</v>
       </c>
       <c r="F11" t="n">
+        <v>8160.970479305091</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7695.000505666894</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.812636165577342</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.2277911835984891</v>
       </c>
     </row>
